--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nell2-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nell2-Robo3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9152923333333334</v>
+        <v>3.197736333333333</v>
       </c>
       <c r="N2">
-        <v>2.745877</v>
+        <v>9.593208999999998</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003711510411666667</v>
+        <v>0.01296682083166667</v>
       </c>
       <c r="R2">
-        <v>0.03340359370500001</v>
+        <v>0.116701387485</v>
       </c>
       <c r="S2">
         <v>1</v>
